--- a/tests/assets/test_data.xlsx
+++ b/tests/assets/test_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rouvenreuter/Documents/Projects/PhenoXtrackt/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EA9D8-CC4A-6F46-9466-FC57AA361D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D5F8A-170A-794F-AACA-D4044CBB409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17040" xr2:uid="{787F3212-EE31-8143-BF42-92F397B75324}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HPOLabels" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>PID_2</t>
   </si>
@@ -50,10 +50,22 @@
     <t>Prominent nose</t>
   </si>
   <si>
-    <t>Asymmetry of the nares</t>
-  </si>
-  <si>
     <t>Intranasal mass</t>
+  </si>
+  <si>
+    <t>AsyMmetry of The nares</t>
+  </si>
+  <si>
+    <t>Unequal nostril shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big nose </t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>PID_4</t>
   </si>
 </sst>
 </file>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7847638-C18D-724A-B668-CE4C4AA4AEFC}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -464,7 +476,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/tests/assets/test_data.xlsx
+++ b/tests/assets/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rouvenreuter/Documents/Projects/PhenoXtrackt/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D5F8A-170A-794F-AACA-D4044CBB409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC18E3-9F6D-B94A-8ACE-212F76339F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17040" xr2:uid="{787F3212-EE31-8143-BF42-92F397B75324}"/>
+    <workbookView xWindow="25880" yWindow="1700" windowWidth="28040" windowHeight="17040" xr2:uid="{787F3212-EE31-8143-BF42-92F397B75324}"/>
   </bookViews>
   <sheets>
     <sheet name="HPOLabels" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>PID_2</t>
   </si>
@@ -59,13 +59,19 @@
     <t>Unequal nostril shape</t>
   </si>
   <si>
-    <t xml:space="preserve">Big nose </t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
     <t>PID_4</t>
+  </si>
+  <si>
+    <t>primary term</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>Nasal tumour</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7847638-C18D-724A-B668-CE4C4AA4AEFC}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,58 +461,73 @@
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/tests/assets/test_data.xlsx
+++ b/tests/assets/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rouvenreuter/Documents/Projects/PhenoXtrackt/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC18E3-9F6D-B94A-8ACE-212F76339F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D9AB1-49A9-B544-90D7-C24A91157E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25880" yWindow="1700" windowWidth="28040" windowHeight="17040" xr2:uid="{787F3212-EE31-8143-BF42-92F397B75324}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>PID_2</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Nasal tumour</t>
+  </si>
+  <si>
+    <t>P12Y5M028D</t>
+  </si>
+  <si>
+    <t>P48Y4M21D</t>
+  </si>
+  <si>
+    <t>P40Y10M05D</t>
   </si>
 </sst>
 </file>
@@ -93,12 +102,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,85 +466,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7847638-C18D-724A-B668-CE4C4AA4AEFC}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/assets/test_data.xlsx
+++ b/tests/assets/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rouvenreuter/Documents/Projects/PhenoXtrackt/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D9AB1-49A9-B544-90D7-C24A91157E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C02BCE-29FA-F040-8758-8D9FEAE23195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25880" yWindow="1700" windowWidth="28040" windowHeight="17040" xr2:uid="{787F3212-EE31-8143-BF42-92F397B75324}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{787F3212-EE31-8143-BF42-92F397B75324}"/>
   </bookViews>
   <sheets>
     <sheet name="HPOLabels" sheetId="1" r:id="rId1"/>
@@ -50,15 +50,9 @@
     <t>Prominent nose</t>
   </si>
   <si>
-    <t>Intranasal mass</t>
-  </si>
-  <si>
     <t>AsyMmetry of The nares</t>
   </si>
   <si>
-    <t>Unequal nostril shape</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>P40Y10M05D</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>bleak</t>
   </si>
 </sst>
 </file>
@@ -131,7 +131,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -512,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -526,13 +526,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -556,15 +556,15 @@
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
     </row>

--- a/tests/assets/test_data.xlsx
+++ b/tests/assets/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rouvenreuter/Documents/Projects/PhenoXtrackt/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C02BCE-29FA-F040-8758-8D9FEAE23195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0820C11-E99B-EF49-880A-971D75538646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{787F3212-EE31-8143-BF42-92F397B75324}"/>
   </bookViews>
@@ -50,9 +50,15 @@
     <t>Prominent nose</t>
   </si>
   <si>
+    <t>Intranasal mass</t>
+  </si>
+  <si>
     <t>AsyMmetry of The nares</t>
   </si>
   <si>
+    <t>Unequal nostril shape</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
@@ -75,12 +81,6 @@
   </si>
   <si>
     <t>P40Y10M05D</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>bleak</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -512,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -526,13 +526,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -556,15 +556,15 @@
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2"/>
     </row>
